--- a/src/last_fm/output.xlsx
+++ b/src/last_fm/output.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sicon\Documents\GitHub\Law-School-Copyright\src\last_fm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6C2259-DE35-449C-ADEB-C6BCD6B5AD46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1963" sheetId="1" r:id="rId1"/>
+    <sheet name="1964" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="426">
   <si>
     <t>artist</t>
   </si>
@@ -40,432 +35,486 @@
     <t>The Beach Boys</t>
   </si>
   <si>
+    <t>Skeeter Davis</t>
+  </si>
+  <si>
+    <t>The Cascades</t>
+  </si>
+  <si>
+    <t>The Chiffons</t>
+  </si>
+  <si>
+    <t>Bobby Vinton</t>
+  </si>
+  <si>
+    <t>Paul &amp; Paula</t>
+  </si>
+  <si>
+    <t>Little Stevie Wonder</t>
+  </si>
+  <si>
+    <t>Andy Williams</t>
+  </si>
+  <si>
+    <t>The Angels</t>
+  </si>
+  <si>
+    <t>Kyu Sakamoto</t>
+  </si>
+  <si>
+    <t>The Tymes</t>
+  </si>
+  <si>
+    <t>Peter, Paul &amp; Mary</t>
+  </si>
+  <si>
+    <t>The Surfaris</t>
+  </si>
+  <si>
+    <t>Al Martino</t>
+  </si>
+  <si>
+    <t>The Rebels</t>
+  </si>
+  <si>
+    <t>Bobby Darin</t>
+  </si>
+  <si>
+    <t>The Four Seasons</t>
+  </si>
+  <si>
+    <t>Inez &amp; Charlie Foxx</t>
+  </si>
+  <si>
+    <t>Little Peggy March</t>
+  </si>
+  <si>
+    <t>The Chantays</t>
+  </si>
+  <si>
+    <t>Jan &amp; Dean</t>
+  </si>
+  <si>
+    <t>Lesley Gore</t>
+  </si>
+  <si>
+    <t>Eydie Gormé</t>
+  </si>
+  <si>
+    <t>The Dovells</t>
+  </si>
+  <si>
+    <t>Martha &amp; the Vandellas</t>
+  </si>
+  <si>
+    <t>Randy &amp; the Rainbows</t>
+  </si>
+  <si>
+    <t>The Rooftop Singers</t>
+  </si>
+  <si>
+    <t>Jimmy Soul</t>
+  </si>
+  <si>
+    <t>Trini Lopez</t>
+  </si>
+  <si>
+    <t>The Essex</t>
+  </si>
+  <si>
+    <t>Dion</t>
+  </si>
+  <si>
+    <t>Ruby &amp; the Romantics</t>
+  </si>
+  <si>
+    <t>Barbara Lewis</t>
+  </si>
+  <si>
+    <t>The Ronettes</t>
+  </si>
+  <si>
+    <t>The Orlons</t>
+  </si>
+  <si>
+    <t>Henry Mancini</t>
+  </si>
+  <si>
+    <t>Major Lance</t>
+  </si>
+  <si>
+    <t>Jimmy Gilmer and the Fireballs</t>
+  </si>
+  <si>
+    <t>Bill Anderson</t>
+  </si>
+  <si>
+    <t>Garnet Mimms &amp; the Enchanters</t>
+  </si>
+  <si>
+    <t>Lou Christie</t>
+  </si>
+  <si>
+    <t>Ray Charles</t>
+  </si>
+  <si>
+    <t>The Crystals</t>
+  </si>
+  <si>
+    <t>The Shirelles</t>
+  </si>
+  <si>
+    <t>Lonnie Mack</t>
+  </si>
+  <si>
+    <t>Roy Orbison</t>
+  </si>
+  <si>
+    <t>Kai Winding</t>
+  </si>
+  <si>
+    <t>Brenda Lee</t>
+  </si>
+  <si>
+    <t>Bill Pursell</t>
+  </si>
+  <si>
+    <t>Tony Bennett</t>
+  </si>
+  <si>
+    <t>The Miracles</t>
+  </si>
+  <si>
+    <t>The Jaynetts</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Nat King Cole</t>
+  </si>
+  <si>
+    <t>Jackie Wilson</t>
+  </si>
+  <si>
+    <t>Marvin Gaye</t>
+  </si>
+  <si>
+    <t>Nino Tempo &amp; April Stevens</t>
+  </si>
+  <si>
+    <t>Ned Miller</t>
+  </si>
+  <si>
+    <t>The Drifters</t>
+  </si>
+  <si>
+    <t>Johnny Mathis</t>
+  </si>
+  <si>
+    <t>Jan Bradley</t>
+  </si>
+  <si>
+    <t>Bobby Vee</t>
+  </si>
+  <si>
+    <t>The Cookies</t>
+  </si>
+  <si>
+    <t>Johnny Cash</t>
+  </si>
+  <si>
+    <t>Doris Troy</t>
+  </si>
+  <si>
+    <t>Allan Sherman</t>
+  </si>
+  <si>
+    <t>Rolf Harris</t>
+  </si>
+  <si>
+    <t>Rick Nelson</t>
+  </si>
+  <si>
+    <t>The Village Stompers</t>
+  </si>
+  <si>
+    <t>Sam Cooke</t>
+  </si>
+  <si>
+    <t>Steve Lawrence</t>
+  </si>
+  <si>
+    <t>Sunny &amp; the Sunglows</t>
+  </si>
+  <si>
+    <t>Martha and the Vandellas</t>
+  </si>
+  <si>
+    <t>Dee Dee Sharp</t>
+  </si>
+  <si>
+    <t>The Impressions</t>
+  </si>
+  <si>
+    <t>Del Shannon</t>
+  </si>
+  <si>
+    <t>Joe Harnell</t>
+  </si>
+  <si>
+    <t>The Kingston Trio</t>
+  </si>
+  <si>
+    <t>The Dartells</t>
+  </si>
+  <si>
+    <t>The Ran-Dells</t>
+  </si>
+  <si>
+    <t>George Hamilton IV</t>
+  </si>
+  <si>
+    <t>Little Johnny Taylor</t>
+  </si>
+  <si>
+    <t>Los Indios Tabajaras</t>
+  </si>
+  <si>
+    <t>Bobby Bare</t>
+  </si>
+  <si>
+    <t>Chubby Checker</t>
+  </si>
+  <si>
+    <t>The New Christy Minstrels</t>
+  </si>
+  <si>
+    <t>Freddie Scott</t>
+  </si>
+  <si>
     <t>Surfin' U.S.A.</t>
   </si>
   <si>
-    <t>Skeeter Davis</t>
-  </si>
-  <si>
     <t>The End of the World</t>
   </si>
   <si>
-    <t>The Cascades</t>
-  </si>
-  <si>
     <t>Rhythm of the Rain</t>
   </si>
   <si>
-    <t>The Chiffons</t>
-  </si>
-  <si>
     <t>He's So Fine</t>
   </si>
   <si>
-    <t>Bobby Vinton</t>
-  </si>
-  <si>
     <t>Blue Velvet</t>
   </si>
   <si>
-    <t>Paul &amp; Paula</t>
-  </si>
-  <si>
     <t>Hey Paula</t>
   </si>
   <si>
-    <t>Little Stevie Wonder</t>
-  </si>
-  <si>
     <t>Fingertips</t>
   </si>
   <si>
-    <t>Andy Williams</t>
-  </si>
-  <si>
     <t>Can't Get Used to Losing You</t>
   </si>
   <si>
-    <t>The Angels</t>
-  </si>
-  <si>
     <t>My Boyfriend's Back</t>
   </si>
   <si>
-    <t>Kyu Sakamoto</t>
-  </si>
-  <si>
     <t>Sukiyaki</t>
   </si>
   <si>
-    <t>The Tymes</t>
-  </si>
-  <si>
     <t>So Much in Love</t>
   </si>
   <si>
-    <t>Peter, Paul &amp; Mary</t>
-  </si>
-  <si>
     <t>Puff, the Magic Dragon</t>
   </si>
   <si>
     <t>Blowin' in the Wind</t>
   </si>
   <si>
-    <t>The Surfaris</t>
-  </si>
-  <si>
     <t>Wipe Out</t>
   </si>
   <si>
-    <t>Al Martino</t>
-  </si>
-  <si>
     <t>I Love You Because</t>
   </si>
   <si>
-    <t>The Rebels</t>
-  </si>
-  <si>
     <t>Wild Weekend</t>
   </si>
   <si>
-    <t>Bobby Darin</t>
-  </si>
-  <si>
     <t>You're the Reason I'm Living</t>
   </si>
   <si>
-    <t>The Four Seasons</t>
-  </si>
-  <si>
     <t>Walk Like a Man</t>
   </si>
   <si>
-    <t>Inez &amp; Charlie Foxx</t>
-  </si>
-  <si>
     <t>Mockingbird</t>
   </si>
   <si>
-    <t>Little Peggy March</t>
-  </si>
-  <si>
     <t>I Will Follow Him</t>
   </si>
   <si>
-    <t>The Chantays</t>
-  </si>
-  <si>
     <t>Pipeline</t>
   </si>
   <si>
-    <t>Jan &amp; Dean</t>
-  </si>
-  <si>
     <t>Surf City</t>
   </si>
   <si>
-    <t>Lesley Gore</t>
-  </si>
-  <si>
     <t>It's My Party</t>
   </si>
   <si>
-    <t>Eydie Gormé</t>
-  </si>
-  <si>
     <t>Blame It on the Bossa Nova</t>
   </si>
   <si>
-    <t>The Dovells</t>
-  </si>
-  <si>
     <t>You Can't Sit Down</t>
   </si>
   <si>
-    <t>Martha &amp; the Vandellas</t>
-  </si>
-  <si>
     <t>Heat Wave</t>
   </si>
   <si>
-    <t>Randy &amp; the Rainbows</t>
-  </si>
-  <si>
     <t>Denise</t>
   </si>
   <si>
-    <t>The Rooftop Singers</t>
-  </si>
-  <si>
     <t>Walk Right In</t>
   </si>
   <si>
-    <t>Jimmy Soul</t>
-  </si>
-  <si>
     <t>If You Wanna Be Happy</t>
   </si>
   <si>
-    <t>Trini Lopez</t>
-  </si>
-  <si>
     <t>If I Had a Hammer</t>
   </si>
   <si>
-    <t>The Essex</t>
-  </si>
-  <si>
     <t>Easier Said Than Done</t>
   </si>
   <si>
-    <t>Dion</t>
-  </si>
-  <si>
     <t>Ruby Baby</t>
   </si>
   <si>
-    <t>Ruby &amp; the Romantics</t>
-  </si>
-  <si>
     <t>Our Day Will Come</t>
   </si>
   <si>
-    <t>Barbara Lewis</t>
-  </si>
-  <si>
     <t>Hello Stranger</t>
   </si>
   <si>
-    <t>The Ronettes</t>
-  </si>
-  <si>
     <t>Be My Baby</t>
   </si>
   <si>
-    <t>The Orlons</t>
-  </si>
-  <si>
     <t>South Street</t>
   </si>
   <si>
-    <t>Henry Mancini</t>
-  </si>
-  <si>
     <t>Days of Wine and Roses</t>
   </si>
   <si>
-    <t>Major Lance</t>
-  </si>
-  <si>
     <t>The Monkey Time</t>
   </si>
   <si>
     <t>Candy Girl</t>
   </si>
   <si>
-    <t>Jimmy Gilmer and the Fireballs</t>
-  </si>
-  <si>
     <t>Sugar Shack</t>
   </si>
   <si>
-    <t>Bill Anderson</t>
-  </si>
-  <si>
     <t>Still</t>
   </si>
   <si>
     <t>Blue on Blue</t>
   </si>
   <si>
-    <t>Garnet Mimms &amp; the Enchanters</t>
-  </si>
-  <si>
     <t>Cry Baby</t>
   </si>
   <si>
-    <t>Lou Christie</t>
-  </si>
-  <si>
     <t>Two Faces Have I</t>
   </si>
   <si>
-    <t>Ray Charles</t>
-  </si>
-  <si>
     <t>Busted</t>
   </si>
   <si>
-    <t>The Crystals</t>
-  </si>
-  <si>
     <t>Da Doo Ron Ron</t>
   </si>
   <si>
-    <t>The Shirelles</t>
-  </si>
-  <si>
     <t>Foolish Little Girl</t>
   </si>
   <si>
-    <t>Lonnie Mack</t>
-  </si>
-  <si>
     <t>Memphis</t>
   </si>
   <si>
-    <t>Roy Orbison</t>
-  </si>
-  <si>
     <t>In Dreams</t>
   </si>
   <si>
-    <t>Kai Winding</t>
-  </si>
-  <si>
     <t>More</t>
   </si>
   <si>
     <t>I Can't Stay Mad at You</t>
   </si>
   <si>
-    <t>Brenda Lee</t>
-  </si>
-  <si>
     <t>Losing You</t>
   </si>
   <si>
     <t>Mean Woman Blues</t>
   </si>
   <si>
-    <t>Bill Pursell</t>
-  </si>
-  <si>
     <t>Our Winter Love</t>
   </si>
   <si>
-    <t>Tony Bennett</t>
-  </si>
-  <si>
     <t>I Wanna Be Around</t>
   </si>
   <si>
-    <t>The Miracles</t>
-  </si>
-  <si>
     <t>You've Really Got a Hold on Me</t>
   </si>
   <si>
-    <t>The Jaynetts</t>
-  </si>
-  <si>
     <t>Sally Go 'Round the Roses</t>
   </si>
   <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
     <t>(You're the) Devil in Disguise</t>
   </si>
   <si>
-    <t>Nat King Cole</t>
-  </si>
-  <si>
     <t>Those Lazy-Hazy-Crazy Days of Summer</t>
   </si>
   <si>
-    <t>Jackie Wilson</t>
-  </si>
-  <si>
     <t>Baby Workout</t>
   </si>
   <si>
-    <t>Marvin Gaye</t>
-  </si>
-  <si>
     <t>Pride and Joy</t>
   </si>
   <si>
-    <t>Nino Tempo &amp; April Stevens</t>
-  </si>
-  <si>
     <t>Deep Purple</t>
   </si>
   <si>
-    <t>Ned Miller</t>
-  </si>
-  <si>
     <t>From a Jack to a King</t>
   </si>
   <si>
-    <t>The Drifters</t>
-  </si>
-  <si>
     <t>Up on the Roof</t>
   </si>
   <si>
-    <t>Johnny Mathis</t>
-  </si>
-  <si>
     <t>What Will My Mary Say</t>
   </si>
   <si>
-    <t>Jan Bradley</t>
-  </si>
-  <si>
     <t>Mama Didn't Lie</t>
   </si>
   <si>
-    <t>Bobby Vee</t>
-  </si>
-  <si>
     <t>The Night Has a Thousand Eyes</t>
   </si>
   <si>
-    <t>The Cookies</t>
-  </si>
-  <si>
     <t>Don't Say Nothin' Bad (About My Baby)</t>
   </si>
   <si>
-    <t>Johnny Cash</t>
-  </si>
-  <si>
     <t>Ring of Fire</t>
   </si>
   <si>
-    <t>Doris Troy</t>
-  </si>
-  <si>
     <t>Just One Look</t>
   </si>
   <si>
-    <t>Allan Sherman</t>
-  </si>
-  <si>
     <t>Hello Muddah, Hello Fadduh (A Letter from Camp)</t>
   </si>
   <si>
     <t>Judy's Turn to Cry</t>
   </si>
   <si>
-    <t>Rolf Harris</t>
-  </si>
-  <si>
     <t>Tie Me Kangaroo Down, Sport</t>
   </si>
   <si>
-    <t>Rick Nelson</t>
-  </si>
-  <si>
     <t>Fools Rush In</t>
   </si>
   <si>
-    <t>The Village Stompers</t>
-  </si>
-  <si>
     <t>Washington Square</t>
   </si>
   <si>
@@ -475,45 +524,27 @@
     <t>That Sunday, That Summer</t>
   </si>
   <si>
-    <t>Sam Cooke</t>
-  </si>
-  <si>
     <t>Another Saturday Night</t>
   </si>
   <si>
     <t>Painted, Tainted Rose</t>
   </si>
   <si>
-    <t>Steve Lawrence</t>
-  </si>
-  <si>
     <t>Go Away Little Girl</t>
   </si>
   <si>
     <t>Take These Chains from My Heart</t>
   </si>
   <si>
-    <t>Sunny &amp; the Sunglows</t>
-  </si>
-  <si>
     <t>Talk to Me</t>
   </si>
   <si>
-    <t>Martha and the Vandellas</t>
-  </si>
-  <si>
     <t>Come and Get These Memories</t>
   </si>
   <si>
-    <t>Dee Dee Sharp</t>
-  </si>
-  <si>
     <t>Do the Bird</t>
   </si>
   <si>
-    <t>The Impressions</t>
-  </si>
-  <si>
     <t>It's All Right</t>
   </si>
   <si>
@@ -523,86 +554,752 @@
     <t>One Fine Day</t>
   </si>
   <si>
-    <t>Del Shannon</t>
-  </si>
-  <si>
     <t>Little Town Flirt</t>
   </si>
   <si>
-    <t>Joe Harnell</t>
-  </si>
-  <si>
     <t>Fly Me to the Moon</t>
   </si>
   <si>
-    <t>The Kingston Trio</t>
-  </si>
-  <si>
     <t>The Reverend Mr. Black</t>
   </si>
   <si>
-    <t>The Dartells</t>
-  </si>
-  <si>
     <t>Hot Pastrami</t>
   </si>
   <si>
-    <t>The Ran-Dells</t>
-  </si>
-  <si>
     <t>Martian Hop</t>
   </si>
   <si>
     <t>Wonderful! Wonderful!</t>
   </si>
   <si>
-    <t>George Hamilton IV</t>
-  </si>
-  <si>
     <t>Abilene</t>
   </si>
   <si>
-    <t>Little Johnny Taylor</t>
-  </si>
-  <si>
     <t>Part Time Love</t>
   </si>
   <si>
-    <t>Los Indios Tabajaras</t>
-  </si>
-  <si>
     <t>Maria Elena</t>
   </si>
   <si>
-    <t>Bobby Bare</t>
-  </si>
-  <si>
     <t>Detroit City</t>
   </si>
   <si>
-    <t>Chubby Checker</t>
-  </si>
-  <si>
     <t>Twenty Miles</t>
   </si>
   <si>
-    <t>The New Christy Minstrels</t>
-  </si>
-  <si>
     <t>Green, Green</t>
   </si>
   <si>
-    <t>Freddie Scott</t>
-  </si>
-  <si>
     <t>Hey Girl</t>
+  </si>
+  <si>
+    <t>02:27</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>02:30</t>
+  </si>
+  <si>
+    <t>02:49</t>
+  </si>
+  <si>
+    <t>02:26</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>02:20</t>
+  </si>
+  <si>
+    <t>02:15</t>
+  </si>
+  <si>
+    <t>03:05</t>
+  </si>
+  <si>
+    <t>02:08</t>
+  </si>
+  <si>
+    <t>03:25</t>
+  </si>
+  <si>
+    <t>02:56</t>
+  </si>
+  <si>
+    <t>02:38</t>
+  </si>
+  <si>
+    <t>02:41</t>
+  </si>
+  <si>
+    <t>02:17</t>
+  </si>
+  <si>
+    <t>02:21</t>
+  </si>
+  <si>
+    <t>02:32</t>
+  </si>
+  <si>
+    <t>02:23</t>
+  </si>
+  <si>
+    <t>02:29</t>
+  </si>
+  <si>
+    <t>02:55</t>
+  </si>
+  <si>
+    <t>01:57</t>
+  </si>
+  <si>
+    <t>02:13</t>
+  </si>
+  <si>
+    <t>02:58</t>
+  </si>
+  <si>
+    <t>02:34</t>
+  </si>
+  <si>
+    <t>02:43</t>
+  </si>
+  <si>
+    <t>02:40</t>
+  </si>
+  <si>
+    <t>02:14</t>
+  </si>
+  <si>
+    <t>02:50</t>
+  </si>
+  <si>
+    <t>02:44</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>02:52</t>
+  </si>
+  <si>
+    <t>02:04</t>
+  </si>
+  <si>
+    <t>02:16</t>
+  </si>
+  <si>
+    <t>02:37</t>
+  </si>
+  <si>
+    <t>02:03</t>
+  </si>
+  <si>
+    <t>02:10</t>
+  </si>
+  <si>
+    <t>02:31</t>
+  </si>
+  <si>
+    <t>02:22</t>
+  </si>
+  <si>
+    <t>02:59</t>
+  </si>
+  <si>
+    <t>02:18</t>
+  </si>
+  <si>
+    <t>01:21</t>
+  </si>
+  <si>
+    <t>02:53</t>
+  </si>
+  <si>
+    <t>03:17</t>
+  </si>
+  <si>
+    <t>02:51</t>
+  </si>
+  <si>
+    <t>02:12</t>
+  </si>
+  <si>
+    <t>03:10</t>
+  </si>
+  <si>
+    <t>02:46</t>
+  </si>
+  <si>
+    <t>02:36</t>
+  </si>
+  <si>
+    <t>02:28</t>
+  </si>
+  <si>
+    <t>02:39</t>
+  </si>
+  <si>
+    <t>03:09</t>
+  </si>
+  <si>
+    <t>02:35</t>
+  </si>
+  <si>
+    <t>02:45</t>
+  </si>
+  <si>
+    <t>02:48</t>
+  </si>
+  <si>
+    <t>01:50</t>
+  </si>
+  <si>
+    <t>02:09</t>
+  </si>
+  <si>
+    <t>02:11</t>
+  </si>
+  <si>
+    <t>03:16</t>
+  </si>
+  <si>
+    <t>02:07</t>
+  </si>
+  <si>
+    <t>03:01</t>
+  </si>
+  <si>
+    <t>The Beatles</t>
+  </si>
+  <si>
+    <t>Louis Armstrong</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Mary Wells</t>
+  </si>
+  <si>
+    <t>Gale Garnett</t>
+  </si>
+  <si>
+    <t>J. Frank Wilson &amp; the Cavaliers</t>
+  </si>
+  <si>
+    <t>The Supremes</t>
+  </si>
+  <si>
+    <t>Barbra Streisand</t>
+  </si>
+  <si>
+    <t>Al Hirt</t>
+  </si>
+  <si>
+    <t>Manfred Mann</t>
+  </si>
+  <si>
+    <t>Billy J. Kramer &amp; The Dakotas</t>
+  </si>
+  <si>
+    <t>The Ray Charles Singers</t>
+  </si>
+  <si>
+    <t>The Dixie Cups</t>
+  </si>
+  <si>
+    <t>Terry Stafford</t>
+  </si>
+  <si>
+    <t>The Dave Clark Five</t>
+  </si>
+  <si>
+    <t>The Newbeats</t>
+  </si>
+  <si>
+    <t>Gene Pitney</t>
+  </si>
+  <si>
+    <t>Jan and Dean</t>
+  </si>
+  <si>
+    <t>Jay and the Americans</t>
+  </si>
+  <si>
+    <t>Peter and Gordon</t>
+  </si>
+  <si>
+    <t>The Honeycombs</t>
+  </si>
+  <si>
+    <t>The Serendipity Singers</t>
+  </si>
+  <si>
+    <t>Betty Everett &amp; Jerry Butler</t>
+  </si>
+  <si>
+    <t>Dusty Springfield</t>
+  </si>
+  <si>
+    <t>Dionne Warwick</t>
+  </si>
+  <si>
+    <t>The Animals</t>
+  </si>
+  <si>
+    <t>Ronny &amp; the Daytonas</t>
+  </si>
+  <si>
+    <t>Johnny Rivers</t>
+  </si>
+  <si>
+    <t>Danny Williams</t>
+  </si>
+  <si>
+    <t>The Rip Chords</t>
+  </si>
+  <si>
+    <t>Betty Everett</t>
+  </si>
+  <si>
+    <t>Millie Small</t>
+  </si>
+  <si>
+    <t>Gerry and the Pacemakers</t>
+  </si>
+  <si>
+    <t>Chad &amp; Jeremy</t>
+  </si>
+  <si>
+    <t>Stan Getz &amp; Astrud Gilberto</t>
+  </si>
+  <si>
+    <t>The Shangri-Las</t>
+  </si>
+  <si>
+    <t>Bobby Freeman</t>
+  </si>
+  <si>
+    <t>The Four Tops</t>
+  </si>
+  <si>
+    <t>Diane Renay</t>
+  </si>
+  <si>
+    <t>The Bachelors</t>
+  </si>
+  <si>
+    <t>The Marketts</t>
+  </si>
+  <si>
+    <t>The Hondells</t>
+  </si>
+  <si>
+    <t>Roger Miller</t>
+  </si>
+  <si>
+    <t>Bobby Goldsboro</t>
+  </si>
+  <si>
+    <t>The Reflections</t>
+  </si>
+  <si>
+    <t>Joe Hinton</t>
+  </si>
+  <si>
+    <t>The Temptations</t>
+  </si>
+  <si>
+    <t>The Trashmen</t>
+  </si>
+  <si>
+    <t>The Tams</t>
+  </si>
+  <si>
+    <t>The Kinks</t>
+  </si>
+  <si>
+    <t>Sammy Davis Jr.</t>
+  </si>
+  <si>
+    <t>The Jelly Beans</t>
+  </si>
+  <si>
+    <t>Nancy Wilson</t>
+  </si>
+  <si>
+    <t>The Kingsmen</t>
+  </si>
+  <si>
+    <t>The Searchers</t>
+  </si>
+  <si>
+    <t>Tommy Tucker</t>
+  </si>
+  <si>
+    <t>The Ventures</t>
+  </si>
+  <si>
+    <t>Robert Maxwell</t>
+  </si>
+  <si>
+    <t>Jumpin' Gene Simmons</t>
+  </si>
+  <si>
+    <t>Jimmy Hughes</t>
+  </si>
+  <si>
+    <t>I Want to Hold Your Hand</t>
+  </si>
+  <si>
+    <t>She Loves You</t>
+  </si>
+  <si>
+    <t>Hello, Dolly!</t>
+  </si>
+  <si>
+    <t>Oh, Pretty Woman</t>
+  </si>
+  <si>
+    <t>I Get Around</t>
+  </si>
+  <si>
+    <t>Everybody Loves Somebody</t>
+  </si>
+  <si>
+    <t>My Guy</t>
+  </si>
+  <si>
+    <t>We'll Sing in the Sunshine</t>
+  </si>
+  <si>
+    <t>Last Kiss</t>
+  </si>
+  <si>
+    <t>Where Did Our Love Go</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>A Hard Day's Night</t>
+  </si>
+  <si>
+    <t>Love Me Do</t>
+  </si>
+  <si>
+    <t>Do Wah Diddy Diddy</t>
+  </si>
+  <si>
+    <t>Please Please Me</t>
+  </si>
+  <si>
+    <t>Dancing in the Street</t>
+  </si>
+  <si>
+    <t>Little Children</t>
+  </si>
+  <si>
+    <t>Love Me with All Your Heart (Cuando Calienta El Sol)</t>
+  </si>
+  <si>
+    <t>Under the Boardwalk</t>
+  </si>
+  <si>
+    <t>Chapel of Love</t>
+  </si>
+  <si>
+    <t>Suspicion</t>
+  </si>
+  <si>
+    <t>Glad All Over</t>
+  </si>
+  <si>
+    <t>Rag Doll</t>
+  </si>
+  <si>
+    <t>Dawn (Go Away)</t>
+  </si>
+  <si>
+    <t>Bread and Butter</t>
+  </si>
+  <si>
+    <t>It Hurts to Be in Love</t>
+  </si>
+  <si>
+    <t>Dead Man's Curve</t>
+  </si>
+  <si>
+    <t>Come a Little Bit Closer</t>
+  </si>
+  <si>
+    <t>A World Without Love</t>
+  </si>
+  <si>
+    <t>Have I the Right?</t>
+  </si>
+  <si>
+    <t>Don't Let the Rain Come Down (Crooked Little Man)</t>
+  </si>
+  <si>
+    <t>Baby Love</t>
+  </si>
+  <si>
+    <t>Let It Be Me</t>
+  </si>
+  <si>
+    <t>Wishin' and Hopin'</t>
+  </si>
+  <si>
+    <t>You Don't Own Me</t>
+  </si>
+  <si>
+    <t>Walk On By</t>
+  </si>
+  <si>
+    <t>The House of the Rising Sun</t>
+  </si>
+  <si>
+    <t>G.T.O.</t>
+  </si>
+  <si>
+    <t>Twist and Shout</t>
+  </si>
+  <si>
+    <t>White On White</t>
+  </si>
+  <si>
+    <t>Hey Little Cobra</t>
+  </si>
+  <si>
+    <t>The Shoop Shoop Song (It's in His Kiss)</t>
+  </si>
+  <si>
+    <t>Bits and Pieces</t>
+  </si>
+  <si>
+    <t>My Boy Lollipop</t>
+  </si>
+  <si>
+    <t>Um, Um, Um, Um, Um, Um</t>
+  </si>
+  <si>
+    <t>The Little Old Lady from Pasadena</t>
+  </si>
+  <si>
+    <t>Don't Let the Sun Catch You Crying</t>
+  </si>
+  <si>
+    <t>A Summer Song</t>
+  </si>
+  <si>
+    <t>The Girl from Ipanema</t>
+  </si>
+  <si>
+    <t>Can't Buy Me Love</t>
+  </si>
+  <si>
+    <t>Remember (Walking in the Sand)</t>
+  </si>
+  <si>
+    <t>C'mon and Swim</t>
+  </si>
+  <si>
+    <t>Do You Want to Know a Secret</t>
+  </si>
+  <si>
+    <t>Keep On Pushing</t>
+  </si>
+  <si>
+    <t>Baby I Need Your Loving</t>
+  </si>
+  <si>
+    <t>Navy Blue</t>
+  </si>
+  <si>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>Out of Limits</t>
+  </si>
+  <si>
+    <t>Little Honda</t>
+  </si>
+  <si>
+    <t>Chug-a-Lug</t>
+  </si>
+  <si>
+    <t>See the Funny Little Clown</t>
+  </si>
+  <si>
+    <t>Because</t>
+  </si>
+  <si>
+    <t>(Just Like) Romeo and Juliet</t>
+  </si>
+  <si>
+    <t>For You</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Can't You See That She's Mine</t>
+  </si>
+  <si>
+    <t>Leader of the Pack</t>
+  </si>
+  <si>
+    <t>Funny How Time Slips Away</t>
+  </si>
+  <si>
+    <t>The Way You Do the Things You Do</t>
+  </si>
+  <si>
+    <t>Anyone Who Had a Heart</t>
+  </si>
+  <si>
+    <t>I Love You More and More Every Day</t>
+  </si>
+  <si>
+    <t>It's Over</t>
+  </si>
+  <si>
+    <t>Ronnie</t>
+  </si>
+  <si>
+    <t>Surfin' Bird</t>
+  </si>
+  <si>
+    <t>What Kind of Fool (Do You Think I Am)</t>
+  </si>
+  <si>
+    <t>The Door Is Still Open to My Heart</t>
+  </si>
+  <si>
+    <t>You Really Got Me</t>
+  </si>
+  <si>
+    <t>The Shelter of Your Arms</t>
+  </si>
+  <si>
+    <t>I'm So Proud</t>
+  </si>
+  <si>
+    <t>I Wanna Love Him So Bad</t>
+  </si>
+  <si>
+    <t>Dang Me</t>
+  </si>
+  <si>
+    <t>Cotton Candy</t>
+  </si>
+  <si>
+    <t>(You Don't Know) How Glad I Am</t>
+  </si>
+  <si>
+    <t>Money (That's What I Want)</t>
+  </si>
+  <si>
+    <t>Don't Throw Your Love Away</t>
+  </si>
+  <si>
+    <t>Hi-Heel Sneakers</t>
+  </si>
+  <si>
+    <t>How Do You Do It?</t>
+  </si>
+  <si>
+    <t>Walk, Don't Run '64</t>
+  </si>
+  <si>
+    <t>Do You Love Me</t>
+  </si>
+  <si>
+    <t>Shangri-La</t>
+  </si>
+  <si>
+    <t>Haunted House</t>
+  </si>
+  <si>
+    <t>Steal Away</t>
+  </si>
+  <si>
+    <t>I Saw Her Standing There</t>
+  </si>
+  <si>
+    <t>A Fool Never Learns</t>
+  </si>
+  <si>
+    <t>Bad to Me</t>
+  </si>
+  <si>
+    <t>There! I've Said It Again</t>
+  </si>
+  <si>
+    <t>Louie Louie</t>
+  </si>
+  <si>
+    <t>Needles and Pins</t>
+  </si>
+  <si>
+    <t>02:24</t>
+  </si>
+  <si>
+    <t>03:46</t>
+  </si>
+  <si>
+    <t>02:25</t>
+  </si>
+  <si>
+    <t>05:08</t>
+  </si>
+  <si>
+    <t>01:59</t>
+  </si>
+  <si>
+    <t>01:58</t>
+  </si>
+  <si>
+    <t>04:28</t>
+  </si>
+  <si>
+    <t>02:19</t>
+  </si>
+  <si>
+    <t>07:25</t>
+  </si>
+  <si>
+    <t>02:02</t>
+  </si>
+  <si>
+    <t>02:47</t>
+  </si>
+  <si>
+    <t>04:31</t>
+  </si>
+  <si>
+    <t>01:47</t>
+  </si>
+  <si>
+    <t>01:41</t>
+  </si>
+  <si>
+    <t>02:01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,7 +1310,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -662,14 +1362,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -957,16 +1649,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -991,287 +1681,287 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>860930</v>
+        <v>861009</v>
       </c>
       <c r="E2">
-        <v>239567</v>
-      </c>
-      <c r="F2">
-        <v>147000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>239577</v>
+      </c>
+      <c r="F2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D3">
-        <v>846747</v>
+        <v>847156</v>
       </c>
       <c r="E3">
-        <v>163599</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163657</v>
+      </c>
+      <c r="F3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="D4">
-        <v>212194</v>
+        <v>212262</v>
       </c>
       <c r="E4">
-        <v>51128</v>
-      </c>
-      <c r="F4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>309152</v>
+        <v>309177</v>
       </c>
       <c r="E5">
-        <v>92432</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92437</v>
+      </c>
+      <c r="F5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>593639</v>
+        <v>593927</v>
       </c>
       <c r="E6">
-        <v>143728</v>
-      </c>
-      <c r="F6">
-        <v>169000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143773</v>
+      </c>
+      <c r="F6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>107534</v>
+        <v>107544</v>
       </c>
       <c r="E7">
-        <v>32415</v>
-      </c>
-      <c r="F7">
-        <v>146000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32417</v>
+      </c>
+      <c r="F7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>50817</v>
+        <v>50819</v>
       </c>
       <c r="E8">
         <v>24329</v>
       </c>
-      <c r="F8">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>135065</v>
+        <v>135085</v>
       </c>
       <c r="E9">
-        <v>48467</v>
-      </c>
-      <c r="F9">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48471</v>
+      </c>
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>178245</v>
+        <v>178277</v>
       </c>
       <c r="E10">
-        <v>53417</v>
-      </c>
-      <c r="F10">
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53422</v>
+      </c>
+      <c r="F10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="D11">
-        <v>189170</v>
+        <v>189263</v>
       </c>
       <c r="E11">
-        <v>40580</v>
-      </c>
-      <c r="F11">
-        <v>185000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40594</v>
+      </c>
+      <c r="F11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D12">
-        <v>47868</v>
+        <v>47880</v>
       </c>
       <c r="E12">
-        <v>16023</v>
-      </c>
-      <c r="F12">
-        <v>128000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16028</v>
+      </c>
+      <c r="F12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D13">
-        <v>135529</v>
+        <v>135569</v>
       </c>
       <c r="E13">
-        <v>31014</v>
-      </c>
-      <c r="F13">
-        <v>205000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31022</v>
+      </c>
+      <c r="F13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D14">
-        <v>110473</v>
+        <v>110503</v>
       </c>
       <c r="E14">
-        <v>26305</v>
-      </c>
-      <c r="F14">
-        <v>176000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26313</v>
+      </c>
+      <c r="F14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>333150</v>
+        <v>333235</v>
       </c>
       <c r="E15">
-        <v>104017</v>
-      </c>
-      <c r="F15">
-        <v>158000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104036</v>
+      </c>
+      <c r="F15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D16">
         <v>30461</v>
@@ -1279,19 +1969,19 @@
       <c r="E16">
         <v>14348</v>
       </c>
-      <c r="F16">
-        <v>161000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D17">
         <v>2377</v>
@@ -1299,19 +1989,19 @@
       <c r="E17">
         <v>887</v>
       </c>
-      <c r="F17">
-        <v>137000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="D18">
         <v>22663</v>
@@ -1319,459 +2009,459 @@
       <c r="E18">
         <v>10292</v>
       </c>
-      <c r="F18">
-        <v>147000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="D19">
-        <v>56885</v>
+        <v>56891</v>
       </c>
       <c r="E19">
-        <v>17253</v>
-      </c>
-      <c r="F19">
-        <v>141000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17255</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D20">
-        <v>14656</v>
+        <v>14658</v>
       </c>
       <c r="E20">
         <v>5712</v>
       </c>
-      <c r="F20">
-        <v>161000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="D21">
-        <v>148741</v>
+        <v>148795</v>
       </c>
       <c r="E21">
-        <v>34225</v>
-      </c>
-      <c r="F21">
-        <v>152000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34236</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="D22">
-        <v>197446</v>
+        <v>197494</v>
       </c>
       <c r="E22">
-        <v>58663</v>
-      </c>
-      <c r="F22">
-        <v>143000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58672</v>
+      </c>
+      <c r="F22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D23">
-        <v>221399</v>
+        <v>221422</v>
       </c>
       <c r="E23">
-        <v>82135</v>
-      </c>
-      <c r="F23">
-        <v>147000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82142</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>570662</v>
+        <v>570816</v>
       </c>
       <c r="E24">
-        <v>145387</v>
-      </c>
-      <c r="F24">
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>145424</v>
+      </c>
+      <c r="F24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="D25">
-        <v>10468</v>
+        <v>10478</v>
       </c>
       <c r="E25">
-        <v>2696</v>
-      </c>
-      <c r="F25">
-        <v>149000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2698</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="D26">
-        <v>17259</v>
+        <v>17261</v>
       </c>
       <c r="E26">
-        <v>6797</v>
-      </c>
-      <c r="F26">
-        <v>175000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6798</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="D27">
-        <v>61747</v>
+        <v>61748</v>
       </c>
       <c r="E27">
         <v>18358</v>
       </c>
-      <c r="F27">
-        <v>161000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="D28">
-        <v>96489</v>
+        <v>96497</v>
       </c>
       <c r="E28">
-        <v>26452</v>
-      </c>
-      <c r="F28">
-        <v>117000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26454</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="D29">
-        <v>157510</v>
+        <v>157532</v>
       </c>
       <c r="E29">
-        <v>51763</v>
-      </c>
-      <c r="F29">
-        <v>152000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51769</v>
+      </c>
+      <c r="F29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D30">
-        <v>197941</v>
+        <v>197962</v>
       </c>
       <c r="E30">
-        <v>44510</v>
-      </c>
-      <c r="F30">
-        <v>133000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44512</v>
+      </c>
+      <c r="F30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="D31">
-        <v>128333</v>
+        <v>128341</v>
       </c>
       <c r="E31">
-        <v>37848</v>
-      </c>
-      <c r="F31">
-        <v>178000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37850</v>
+      </c>
+      <c r="F31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="D32">
-        <v>33187</v>
+        <v>33188</v>
       </c>
       <c r="E32">
         <v>9171</v>
       </c>
-      <c r="F32">
-        <v>128000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="D33">
-        <v>43726</v>
+        <v>43739</v>
       </c>
       <c r="E33">
-        <v>18114</v>
-      </c>
-      <c r="F33">
-        <v>154000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18117</v>
+      </c>
+      <c r="F33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="D34">
-        <v>32573</v>
+        <v>32575</v>
       </c>
       <c r="E34">
         <v>9677</v>
       </c>
-      <c r="F34">
-        <v>149000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D35">
-        <v>179577</v>
+        <v>179804</v>
       </c>
       <c r="E35">
-        <v>43626</v>
-      </c>
-      <c r="F35">
-        <v>163000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43646</v>
+      </c>
+      <c r="F35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D36">
-        <v>2174743</v>
+        <v>2175424</v>
       </c>
       <c r="E36">
-        <v>443391</v>
-      </c>
-      <c r="F36">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>443492</v>
+      </c>
+      <c r="F36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="D37">
-        <v>17038</v>
+        <v>17043</v>
       </c>
       <c r="E37">
-        <v>6676</v>
-      </c>
-      <c r="F37">
-        <v>134000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6678</v>
+      </c>
+      <c r="F37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="D38">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="E38">
         <v>14199</v>
       </c>
-      <c r="F38">
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D39">
-        <v>46040</v>
+        <v>46050</v>
       </c>
       <c r="E39">
-        <v>16964</v>
-      </c>
-      <c r="F39">
-        <v>164000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16968</v>
+      </c>
+      <c r="F39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D40">
-        <v>7613</v>
+        <v>7615</v>
       </c>
       <c r="E40">
         <v>2321</v>
       </c>
-      <c r="F40">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="D41">
         <v>8772</v>
@@ -1779,59 +2469,59 @@
       <c r="E41">
         <v>3353</v>
       </c>
-      <c r="F41">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="D42">
-        <v>42396</v>
+        <v>42397</v>
       </c>
       <c r="E42">
         <v>15257</v>
       </c>
-      <c r="F42">
-        <v>172000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="D43">
-        <v>95301</v>
+        <v>95322</v>
       </c>
       <c r="E43">
-        <v>31558</v>
-      </c>
-      <c r="F43">
-        <v>146000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31563</v>
+      </c>
+      <c r="F43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="D44">
         <v>-1</v>
@@ -1843,555 +2533,555 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="D45">
-        <v>35162</v>
+        <v>35166</v>
       </c>
       <c r="E45">
-        <v>12470</v>
-      </c>
-      <c r="F45">
-        <v>161000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12471</v>
+      </c>
+      <c r="F45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="D46">
-        <v>239712</v>
+        <v>239725</v>
       </c>
       <c r="E46">
-        <v>84549</v>
-      </c>
-      <c r="F46">
-        <v>124000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84550</v>
+      </c>
+      <c r="F46" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="D47">
-        <v>245441</v>
+        <v>245479</v>
       </c>
       <c r="E47">
-        <v>71523</v>
-      </c>
-      <c r="F47">
-        <v>134000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71529</v>
+      </c>
+      <c r="F47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="D48">
-        <v>57386</v>
+        <v>57393</v>
       </c>
       <c r="E48">
-        <v>22225</v>
-      </c>
-      <c r="F48">
-        <v>136000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22229</v>
+      </c>
+      <c r="F48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="D49">
-        <v>23543</v>
+        <v>23548</v>
       </c>
       <c r="E49">
         <v>8928</v>
       </c>
-      <c r="F49">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="D50">
-        <v>924361</v>
+        <v>924638</v>
       </c>
       <c r="E50">
-        <v>208614</v>
-      </c>
-      <c r="F50">
-        <v>157000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>208655</v>
+      </c>
+      <c r="F50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="D51">
-        <v>8931</v>
+        <v>8932</v>
       </c>
       <c r="E51">
         <v>3291</v>
       </c>
-      <c r="F51">
-        <v>123000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="D52">
-        <v>49888</v>
+        <v>49903</v>
       </c>
       <c r="E52">
         <v>14072</v>
       </c>
-      <c r="F52">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D53">
-        <v>30650</v>
+        <v>30653</v>
       </c>
       <c r="E53">
         <v>8307</v>
       </c>
-      <c r="F53">
-        <v>151000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D54">
-        <v>147602</v>
+        <v>147613</v>
       </c>
       <c r="E54">
-        <v>53057</v>
-      </c>
-      <c r="F54">
-        <v>143000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53063</v>
+      </c>
+      <c r="F54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D55">
-        <v>17162</v>
+        <v>17163</v>
       </c>
       <c r="E55">
         <v>5427</v>
       </c>
-      <c r="F55">
-        <v>142000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="D56">
-        <v>168132</v>
+        <v>168146</v>
       </c>
       <c r="E56">
         <v>76281</v>
       </c>
-      <c r="F56">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="D57">
-        <v>249587</v>
+        <v>249645</v>
       </c>
       <c r="E57">
-        <v>89553</v>
-      </c>
-      <c r="F57">
-        <v>178000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89575</v>
+      </c>
+      <c r="F57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="D58">
-        <v>51554</v>
+        <v>51566</v>
       </c>
       <c r="E58">
-        <v>18124</v>
-      </c>
-      <c r="F58">
-        <v>179000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18129</v>
+      </c>
+      <c r="F58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="D59">
-        <v>758321</v>
+        <v>758565</v>
       </c>
       <c r="E59">
-        <v>181105</v>
-      </c>
-      <c r="F59">
-        <v>138000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181160</v>
+      </c>
+      <c r="F59" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="D60">
-        <v>25760</v>
+        <v>25764</v>
       </c>
       <c r="E60">
-        <v>8703</v>
-      </c>
-      <c r="F60">
-        <v>81000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8705</v>
+      </c>
+      <c r="F60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D61">
-        <v>36867</v>
+        <v>36878</v>
       </c>
       <c r="E61">
-        <v>11637</v>
-      </c>
-      <c r="F61">
-        <v>173000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11642</v>
+      </c>
+      <c r="F61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="D62">
-        <v>129721</v>
+        <v>129733</v>
       </c>
       <c r="E62">
-        <v>44618</v>
-      </c>
-      <c r="F62">
-        <v>197000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44619</v>
+      </c>
+      <c r="F62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="D63">
-        <v>37125</v>
+        <v>37129</v>
       </c>
       <c r="E63">
         <v>12326</v>
       </c>
-      <c r="F63">
-        <v>171000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D64">
-        <v>41854</v>
+        <v>41863</v>
       </c>
       <c r="E64">
-        <v>13211</v>
-      </c>
-      <c r="F64">
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13214</v>
+      </c>
+      <c r="F64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D65">
-        <v>322912</v>
+        <v>322980</v>
       </c>
       <c r="E65">
-        <v>103501</v>
-      </c>
-      <c r="F65">
-        <v>149000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>103523</v>
+      </c>
+      <c r="F65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="D66">
-        <v>11637</v>
+        <v>11639</v>
       </c>
       <c r="E66">
         <v>5744</v>
       </c>
-      <c r="F66">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D67">
-        <v>33029</v>
+        <v>33031</v>
       </c>
       <c r="E67">
-        <v>11682</v>
-      </c>
-      <c r="F67">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11683</v>
+      </c>
+      <c r="F67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D68">
-        <v>144641</v>
+        <v>144664</v>
       </c>
       <c r="E68">
-        <v>52900</v>
-      </c>
-      <c r="F68">
-        <v>154000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52906</v>
+      </c>
+      <c r="F68" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D69">
-        <v>14522</v>
+        <v>14526</v>
       </c>
       <c r="E69">
-        <v>4615</v>
-      </c>
-      <c r="F69">
-        <v>166000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4616</v>
+      </c>
+      <c r="F69" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D70">
-        <v>3975935</v>
+        <v>3976466</v>
       </c>
       <c r="E70">
-        <v>783071</v>
-      </c>
-      <c r="F70">
-        <v>156000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>783129</v>
+      </c>
+      <c r="F70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D71">
-        <v>170755</v>
+        <v>170803</v>
       </c>
       <c r="E71">
-        <v>46810</v>
-      </c>
-      <c r="F71">
-        <v>148000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46817</v>
+      </c>
+      <c r="F71" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="D72">
         <v>767</v>
@@ -2399,59 +3089,59 @@
       <c r="E72">
         <v>264</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D73">
-        <v>69871</v>
+        <v>69890</v>
       </c>
       <c r="E73">
-        <v>22788</v>
-      </c>
-      <c r="F73">
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22796</v>
+      </c>
+      <c r="F73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D74">
-        <v>10070</v>
+        <v>10072</v>
       </c>
       <c r="E74">
         <v>2985</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="D75">
         <v>14537</v>
@@ -2459,99 +3149,99 @@
       <c r="E75">
         <v>6029</v>
       </c>
-      <c r="F75">
-        <v>158000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D76">
-        <v>23082</v>
+        <v>23148</v>
       </c>
       <c r="E76">
-        <v>6301</v>
-      </c>
-      <c r="F76">
-        <v>159000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6334</v>
+      </c>
+      <c r="F76" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D77">
-        <v>42596</v>
+        <v>42612</v>
       </c>
       <c r="E77">
-        <v>15552</v>
-      </c>
-      <c r="F77">
-        <v>172000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15557</v>
+      </c>
+      <c r="F77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D78">
-        <v>25937</v>
+        <v>25942</v>
       </c>
       <c r="E78">
-        <v>9226</v>
-      </c>
-      <c r="F78">
-        <v>189000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9227</v>
+      </c>
+      <c r="F78" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D79">
-        <v>348743</v>
+        <v>348812</v>
       </c>
       <c r="E79">
-        <v>95227</v>
-      </c>
-      <c r="F79">
-        <v>155000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95240</v>
+      </c>
+      <c r="F79" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D80">
         <v>9328</v>
@@ -2559,59 +3249,59 @@
       <c r="E80">
         <v>5652</v>
       </c>
-      <c r="F80">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D81">
-        <v>15421</v>
+        <v>15424</v>
       </c>
       <c r="E81">
         <v>5132</v>
       </c>
-      <c r="F81">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D82">
-        <v>87546</v>
+        <v>87554</v>
       </c>
       <c r="E82">
-        <v>32773</v>
-      </c>
-      <c r="F82">
-        <v>175000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32779</v>
+      </c>
+      <c r="F82" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D83">
         <v>3477</v>
@@ -2619,71 +3309,71 @@
       <c r="E83">
         <v>1373</v>
       </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D84">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="E84">
-        <v>1811</v>
-      </c>
-      <c r="F84">
-        <v>146000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1812</v>
+      </c>
+      <c r="F84" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D85">
-        <v>9200</v>
+        <v>9201</v>
       </c>
       <c r="E85">
-        <v>4057</v>
-      </c>
-      <c r="F85">
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4058</v>
+      </c>
+      <c r="F85" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D86">
-        <v>112469</v>
+        <v>112493</v>
       </c>
       <c r="E86">
-        <v>45302</v>
-      </c>
-      <c r="F86">
-        <v>168000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45313</v>
+      </c>
+      <c r="F86" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2691,67 +3381,67 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D87">
-        <v>304673</v>
+        <v>304702</v>
       </c>
       <c r="E87">
-        <v>94976</v>
-      </c>
-      <c r="F87">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94985</v>
+      </c>
+      <c r="F87" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D88">
-        <v>467064</v>
+        <v>467152</v>
       </c>
       <c r="E88">
-        <v>145603</v>
-      </c>
-      <c r="F88">
-        <v>129000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>145631</v>
+      </c>
+      <c r="F88" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D89">
-        <v>90275</v>
+        <v>90295</v>
       </c>
       <c r="E89">
-        <v>33003</v>
-      </c>
-      <c r="F89">
-        <v>169000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33007</v>
+      </c>
+      <c r="F89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="C90" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D90">
         <v>9512</v>
@@ -2759,19 +3449,19 @@
       <c r="E90">
         <v>4142</v>
       </c>
-      <c r="F90">
-        <v>142000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D91">
         <v>1930</v>
@@ -2779,19 +3469,19 @@
       <c r="E91">
         <v>662</v>
       </c>
-      <c r="F91">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D92">
         <v>1315</v>
@@ -2799,39 +3489,39 @@
       <c r="E92">
         <v>379</v>
       </c>
-      <c r="F92">
-        <v>138000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D93">
-        <v>9636</v>
+        <v>9637</v>
       </c>
       <c r="E93">
         <v>2511</v>
       </c>
-      <c r="F93">
-        <v>129000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D94">
         <v>9454</v>
@@ -2839,99 +3529,99 @@
       <c r="E94">
         <v>3672</v>
       </c>
-      <c r="F94">
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="C95" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D95">
-        <v>39203</v>
+        <v>39219</v>
       </c>
       <c r="E95">
-        <v>13510</v>
-      </c>
-      <c r="F95">
-        <v>131000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13515</v>
+      </c>
+      <c r="F95" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="C96" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D96">
-        <v>6335</v>
+        <v>6337</v>
       </c>
       <c r="E96">
         <v>2167</v>
       </c>
-      <c r="F96">
-        <v>196000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="C97" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D97">
-        <v>51967</v>
+        <v>51983</v>
       </c>
       <c r="E97">
-        <v>14412</v>
-      </c>
-      <c r="F97">
-        <v>189000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14413</v>
+      </c>
+      <c r="F97" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D98">
-        <v>77781</v>
+        <v>77806</v>
       </c>
       <c r="E98">
-        <v>28227</v>
-      </c>
-      <c r="F98">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28233</v>
+      </c>
+      <c r="F98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="C99" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D99">
         <v>5799</v>
@@ -2939,51 +3629,2081 @@
       <c r="E99">
         <v>2916</v>
       </c>
-      <c r="F99">
-        <v>127000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D100">
-        <v>14720</v>
+        <v>14721</v>
       </c>
       <c r="E100">
-        <v>4464</v>
-      </c>
-      <c r="F100">
-        <v>128000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4465</v>
+      </c>
+      <c r="F100" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="C101" t="s">
         <v>191</v>
       </c>
       <c r="D101">
-        <v>11988</v>
+        <v>11996</v>
       </c>
       <c r="E101">
-        <v>4169</v>
-      </c>
-      <c r="F101">
-        <v>181000</v>
+        <v>4170</v>
+      </c>
+      <c r="F101" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2">
+        <v>4109033</v>
+      </c>
+      <c r="E2">
+        <v>696804</v>
+      </c>
+      <c r="F2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3">
+        <v>3400878</v>
+      </c>
+      <c r="E3">
+        <v>598992</v>
+      </c>
+      <c r="F3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4">
+        <v>160190</v>
+      </c>
+      <c r="E4">
+        <v>46206</v>
+      </c>
+      <c r="F4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5">
+        <v>1458674</v>
+      </c>
+      <c r="E5">
+        <v>363827</v>
+      </c>
+      <c r="F5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6">
+        <v>1805568</v>
+      </c>
+      <c r="E6">
+        <v>400366</v>
+      </c>
+      <c r="F6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7">
+        <v>499334</v>
+      </c>
+      <c r="E7">
+        <v>154352</v>
+      </c>
+      <c r="F7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8">
+        <v>772949</v>
+      </c>
+      <c r="E8">
+        <v>247526</v>
+      </c>
+      <c r="F8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9">
+        <v>27642</v>
+      </c>
+      <c r="E9">
+        <v>8188</v>
+      </c>
+      <c r="F9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10">
+        <v>67699</v>
+      </c>
+      <c r="E10">
+        <v>13997</v>
+      </c>
+      <c r="F10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11">
+        <v>740759</v>
+      </c>
+      <c r="E11">
+        <v>206332</v>
+      </c>
+      <c r="F11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12">
+        <v>130482</v>
+      </c>
+      <c r="E12">
+        <v>39084</v>
+      </c>
+      <c r="F12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13">
+        <v>50076</v>
+      </c>
+      <c r="E13">
+        <v>16098</v>
+      </c>
+      <c r="F13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D14">
+        <v>3938797</v>
+      </c>
+      <c r="E14">
+        <v>672781</v>
+      </c>
+      <c r="F14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15">
+        <v>4026135</v>
+      </c>
+      <c r="E15">
+        <v>703392</v>
+      </c>
+      <c r="F15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16">
+        <v>507456</v>
+      </c>
+      <c r="E16">
+        <v>152112</v>
+      </c>
+      <c r="F16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17">
+        <v>1823418</v>
+      </c>
+      <c r="E17">
+        <v>357271</v>
+      </c>
+      <c r="F17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18">
+        <v>84139</v>
+      </c>
+      <c r="E18">
+        <v>28393</v>
+      </c>
+      <c r="F18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20">
+        <v>280</v>
+      </c>
+      <c r="E20">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D21">
+        <v>677201</v>
+      </c>
+      <c r="E21">
+        <v>191025</v>
+      </c>
+      <c r="F21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D22">
+        <v>353681</v>
+      </c>
+      <c r="E22">
+        <v>112087</v>
+      </c>
+      <c r="F22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23">
+        <v>46166</v>
+      </c>
+      <c r="E23">
+        <v>13692</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" t="s">
+        <v>334</v>
+      </c>
+      <c r="D24">
+        <v>90061</v>
+      </c>
+      <c r="E24">
+        <v>21119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25">
+        <v>31645</v>
+      </c>
+      <c r="E25">
+        <v>10445</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26">
+        <v>9480</v>
+      </c>
+      <c r="E26">
+        <v>2526</v>
+      </c>
+      <c r="F26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D27">
+        <v>52656</v>
+      </c>
+      <c r="E27">
+        <v>16128</v>
+      </c>
+      <c r="F27" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" t="s">
+        <v>338</v>
+      </c>
+      <c r="D28">
+        <v>40124</v>
+      </c>
+      <c r="E28">
+        <v>12558</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29">
+        <v>76925</v>
+      </c>
+      <c r="E29">
+        <v>31747</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" t="s">
+        <v>340</v>
+      </c>
+      <c r="D30">
+        <v>409163</v>
+      </c>
+      <c r="E30">
+        <v>96198</v>
+      </c>
+      <c r="F30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31">
+        <v>176719</v>
+      </c>
+      <c r="E31">
+        <v>55232</v>
+      </c>
+      <c r="F31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32">
+        <v>122246</v>
+      </c>
+      <c r="E32">
+        <v>33521</v>
+      </c>
+      <c r="F32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D33">
+        <v>7174</v>
+      </c>
+      <c r="E33">
+        <v>2449</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D34">
+        <v>988475</v>
+      </c>
+      <c r="E34">
+        <v>282582</v>
+      </c>
+      <c r="F34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" t="s">
+        <v>345</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" t="s">
+        <v>346</v>
+      </c>
+      <c r="D36">
+        <v>185294</v>
+      </c>
+      <c r="E36">
+        <v>48993</v>
+      </c>
+      <c r="F36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>347</v>
+      </c>
+      <c r="D37">
+        <v>430561</v>
+      </c>
+      <c r="E37">
+        <v>94045</v>
+      </c>
+      <c r="F37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" t="s">
+        <v>348</v>
+      </c>
+      <c r="D38">
+        <v>739787</v>
+      </c>
+      <c r="E38">
+        <v>209119</v>
+      </c>
+      <c r="F38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>277</v>
+      </c>
+      <c r="C39" t="s">
+        <v>349</v>
+      </c>
+      <c r="D39">
+        <v>5754729</v>
+      </c>
+      <c r="E39">
+        <v>1003264</v>
+      </c>
+      <c r="F39" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D40">
+        <v>20711</v>
+      </c>
+      <c r="E40">
+        <v>6995</v>
+      </c>
+      <c r="F40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>252</v>
+      </c>
+      <c r="C41" t="s">
+        <v>351</v>
+      </c>
+      <c r="D41">
+        <v>3227496</v>
+      </c>
+      <c r="E41">
+        <v>498807</v>
+      </c>
+      <c r="F41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42">
+        <v>57965</v>
+      </c>
+      <c r="E42">
+        <v>23650</v>
+      </c>
+      <c r="F42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D43">
+        <v>5844</v>
+      </c>
+      <c r="E43">
+        <v>2305</v>
+      </c>
+      <c r="F43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" t="s">
+        <v>353</v>
+      </c>
+      <c r="D44">
+        <v>21593</v>
+      </c>
+      <c r="E44">
+        <v>7501</v>
+      </c>
+      <c r="F44" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" t="s">
+        <v>354</v>
+      </c>
+      <c r="D45">
+        <v>123508</v>
+      </c>
+      <c r="E45">
+        <v>40127</v>
+      </c>
+      <c r="F45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" t="s">
+        <v>355</v>
+      </c>
+      <c r="D46">
+        <v>38585</v>
+      </c>
+      <c r="E46">
+        <v>10307</v>
+      </c>
+      <c r="F46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" t="s">
+        <v>356</v>
+      </c>
+      <c r="D47">
+        <v>113600</v>
+      </c>
+      <c r="E47">
+        <v>27549</v>
+      </c>
+      <c r="F47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>357</v>
+      </c>
+      <c r="D48">
+        <v>80554</v>
+      </c>
+      <c r="E48">
+        <v>34614</v>
+      </c>
+      <c r="F48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" t="s">
+        <v>358</v>
+      </c>
+      <c r="D49">
+        <v>24984</v>
+      </c>
+      <c r="E49">
+        <v>10343</v>
+      </c>
+      <c r="F49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" t="s">
+        <v>359</v>
+      </c>
+      <c r="D50">
+        <v>108256</v>
+      </c>
+      <c r="E50">
+        <v>36099</v>
+      </c>
+      <c r="F50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C51" t="s">
+        <v>360</v>
+      </c>
+      <c r="D51">
+        <v>324973</v>
+      </c>
+      <c r="E51">
+        <v>88331</v>
+      </c>
+      <c r="F51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>286</v>
+      </c>
+      <c r="C52" t="s">
+        <v>361</v>
+      </c>
+      <c r="D52">
+        <v>-1</v>
+      </c>
+      <c r="E52">
+        <v>-1</v>
+      </c>
+      <c r="F52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" t="s">
+        <v>362</v>
+      </c>
+      <c r="D53">
+        <v>4105919</v>
+      </c>
+      <c r="E53">
+        <v>694645</v>
+      </c>
+      <c r="F53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>287</v>
+      </c>
+      <c r="C54" t="s">
+        <v>363</v>
+      </c>
+      <c r="D54">
+        <v>111565</v>
+      </c>
+      <c r="E54">
+        <v>32584</v>
+      </c>
+      <c r="F54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>288</v>
+      </c>
+      <c r="C55" t="s">
+        <v>364</v>
+      </c>
+      <c r="D55">
+        <v>14757</v>
+      </c>
+      <c r="E55">
+        <v>6220</v>
+      </c>
+      <c r="F55" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" t="s">
+        <v>365</v>
+      </c>
+      <c r="D56">
+        <v>1285000</v>
+      </c>
+      <c r="E56">
+        <v>245237</v>
+      </c>
+      <c r="F56" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" t="s">
+        <v>366</v>
+      </c>
+      <c r="D57">
+        <v>71173</v>
+      </c>
+      <c r="E57">
+        <v>32366</v>
+      </c>
+      <c r="F57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>289</v>
+      </c>
+      <c r="C58" t="s">
+        <v>367</v>
+      </c>
+      <c r="D58">
+        <v>540708</v>
+      </c>
+      <c r="E58">
+        <v>172723</v>
+      </c>
+      <c r="F58" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>290</v>
+      </c>
+      <c r="C59" t="s">
+        <v>368</v>
+      </c>
+      <c r="D59">
+        <v>17343</v>
+      </c>
+      <c r="E59">
+        <v>4607</v>
+      </c>
+      <c r="F59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" t="s">
+        <v>369</v>
+      </c>
+      <c r="D60">
+        <v>28513</v>
+      </c>
+      <c r="E60">
+        <v>11985</v>
+      </c>
+      <c r="F60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" t="s">
+        <v>370</v>
+      </c>
+      <c r="D61">
+        <v>296937</v>
+      </c>
+      <c r="E61">
+        <v>97065</v>
+      </c>
+      <c r="F61" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>293</v>
+      </c>
+      <c r="C62" t="s">
+        <v>371</v>
+      </c>
+      <c r="D62">
+        <v>16977</v>
+      </c>
+      <c r="E62">
+        <v>5995</v>
+      </c>
+      <c r="F62" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>294</v>
+      </c>
+      <c r="C63" t="s">
+        <v>372</v>
+      </c>
+      <c r="D63">
+        <v>67185</v>
+      </c>
+      <c r="E63">
+        <v>24064</v>
+      </c>
+      <c r="F63" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>295</v>
+      </c>
+      <c r="C64" t="s">
+        <v>373</v>
+      </c>
+      <c r="D64">
+        <v>11906</v>
+      </c>
+      <c r="E64">
+        <v>3530</v>
+      </c>
+      <c r="F64" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>266</v>
+      </c>
+      <c r="C65" t="s">
+        <v>374</v>
+      </c>
+      <c r="D65">
+        <v>57670</v>
+      </c>
+      <c r="E65">
+        <v>12395</v>
+      </c>
+      <c r="F65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>296</v>
+      </c>
+      <c r="C66" t="s">
+        <v>375</v>
+      </c>
+      <c r="D66">
+        <v>9380</v>
+      </c>
+      <c r="E66">
+        <v>2604</v>
+      </c>
+      <c r="F66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>376</v>
+      </c>
+      <c r="D67">
+        <v>3165</v>
+      </c>
+      <c r="E67">
+        <v>1365</v>
+      </c>
+      <c r="F67" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" t="s">
+        <v>377</v>
+      </c>
+      <c r="D68">
+        <v>9795</v>
+      </c>
+      <c r="E68">
+        <v>2845</v>
+      </c>
+      <c r="F68" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69" t="s">
+        <v>378</v>
+      </c>
+      <c r="D69">
+        <v>20032</v>
+      </c>
+      <c r="E69">
+        <v>6088</v>
+      </c>
+      <c r="F69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>287</v>
+      </c>
+      <c r="C70" t="s">
+        <v>379</v>
+      </c>
+      <c r="D70">
+        <v>539692</v>
+      </c>
+      <c r="E70">
+        <v>160206</v>
+      </c>
+      <c r="F70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>297</v>
+      </c>
+      <c r="C71" t="s">
+        <v>380</v>
+      </c>
+      <c r="D71">
+        <v>4114</v>
+      </c>
+      <c r="E71">
+        <v>1377</v>
+      </c>
+      <c r="F71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>298</v>
+      </c>
+      <c r="C72" t="s">
+        <v>381</v>
+      </c>
+      <c r="D72">
+        <v>553218</v>
+      </c>
+      <c r="E72">
+        <v>179544</v>
+      </c>
+      <c r="F72" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" t="s">
+        <v>382</v>
+      </c>
+      <c r="D73">
+        <v>174952</v>
+      </c>
+      <c r="E73">
+        <v>55492</v>
+      </c>
+      <c r="F73" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>383</v>
+      </c>
+      <c r="D74">
+        <v>2634</v>
+      </c>
+      <c r="E74">
+        <v>932</v>
+      </c>
+      <c r="F74" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>384</v>
+      </c>
+      <c r="D75">
+        <v>244588</v>
+      </c>
+      <c r="E75">
+        <v>80350</v>
+      </c>
+      <c r="F75" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>385</v>
+      </c>
+      <c r="D76">
+        <v>5324</v>
+      </c>
+      <c r="E76">
+        <v>1585</v>
+      </c>
+      <c r="F76" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77" t="s">
+        <v>386</v>
+      </c>
+      <c r="D77">
+        <v>1000998</v>
+      </c>
+      <c r="E77">
+        <v>211401</v>
+      </c>
+      <c r="F77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" t="s">
+        <v>387</v>
+      </c>
+      <c r="D78">
+        <v>14332</v>
+      </c>
+      <c r="E78">
+        <v>5663</v>
+      </c>
+      <c r="F78" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" t="s">
+        <v>388</v>
+      </c>
+      <c r="D79">
+        <v>27403</v>
+      </c>
+      <c r="E79">
+        <v>11451</v>
+      </c>
+      <c r="F79" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80" t="s">
+        <v>389</v>
+      </c>
+      <c r="D80">
+        <v>3112044</v>
+      </c>
+      <c r="E80">
+        <v>698021</v>
+      </c>
+      <c r="F80" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>302</v>
+      </c>
+      <c r="C81" t="s">
+        <v>390</v>
+      </c>
+      <c r="D81">
+        <v>12749</v>
+      </c>
+      <c r="E81">
+        <v>6578</v>
+      </c>
+      <c r="F81" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" t="s">
+        <v>391</v>
+      </c>
+      <c r="D82">
+        <v>58563</v>
+      </c>
+      <c r="E82">
+        <v>27824</v>
+      </c>
+      <c r="F82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" t="s">
+        <v>392</v>
+      </c>
+      <c r="D83">
+        <v>18140</v>
+      </c>
+      <c r="E83">
+        <v>6049</v>
+      </c>
+      <c r="F83" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>294</v>
+      </c>
+      <c r="C84" t="s">
+        <v>393</v>
+      </c>
+      <c r="D84">
+        <v>85812</v>
+      </c>
+      <c r="E84">
+        <v>29160</v>
+      </c>
+      <c r="F84" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" t="s">
+        <v>394</v>
+      </c>
+      <c r="D85">
+        <v>10379</v>
+      </c>
+      <c r="E85">
+        <v>3835</v>
+      </c>
+      <c r="F85" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>304</v>
+      </c>
+      <c r="C86" t="s">
+        <v>395</v>
+      </c>
+      <c r="D86">
+        <v>37301</v>
+      </c>
+      <c r="E86">
+        <v>12867</v>
+      </c>
+      <c r="F86" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>305</v>
+      </c>
+      <c r="C87" t="s">
+        <v>396</v>
+      </c>
+      <c r="D87">
+        <v>23944</v>
+      </c>
+      <c r="E87">
+        <v>10069</v>
+      </c>
+      <c r="F87" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>306</v>
+      </c>
+      <c r="C88" t="s">
+        <v>397</v>
+      </c>
+      <c r="D88">
+        <v>94592</v>
+      </c>
+      <c r="E88">
+        <v>35998</v>
+      </c>
+      <c r="F88" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>307</v>
+      </c>
+      <c r="C89" t="s">
+        <v>398</v>
+      </c>
+      <c r="D89">
+        <v>17585</v>
+      </c>
+      <c r="E89">
+        <v>5757</v>
+      </c>
+      <c r="F89" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>284</v>
+      </c>
+      <c r="C90" t="s">
+        <v>399</v>
+      </c>
+      <c r="D90">
+        <v>74045</v>
+      </c>
+      <c r="E90">
+        <v>28652</v>
+      </c>
+      <c r="F90" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>308</v>
+      </c>
+      <c r="C91" t="s">
+        <v>400</v>
+      </c>
+      <c r="D91">
+        <v>8561</v>
+      </c>
+      <c r="E91">
+        <v>2764</v>
+      </c>
+      <c r="F91" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>266</v>
+      </c>
+      <c r="C92" t="s">
+        <v>401</v>
+      </c>
+      <c r="D92">
+        <v>31945</v>
+      </c>
+      <c r="E92">
+        <v>9237</v>
+      </c>
+      <c r="F92" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>309</v>
+      </c>
+      <c r="C93" t="s">
+        <v>402</v>
+      </c>
+      <c r="D93">
+        <v>37282</v>
+      </c>
+      <c r="E93">
+        <v>11119</v>
+      </c>
+      <c r="F93" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>310</v>
+      </c>
+      <c r="C94" t="s">
+        <v>403</v>
+      </c>
+      <c r="D94">
+        <v>13221</v>
+      </c>
+      <c r="E94">
+        <v>5300</v>
+      </c>
+      <c r="F94" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>311</v>
+      </c>
+      <c r="C95" t="s">
+        <v>404</v>
+      </c>
+      <c r="D95">
+        <v>29962</v>
+      </c>
+      <c r="E95">
+        <v>10565</v>
+      </c>
+      <c r="F95" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" t="s">
+        <v>405</v>
+      </c>
+      <c r="D96">
+        <v>2527491</v>
+      </c>
+      <c r="E96">
+        <v>420307</v>
+      </c>
+      <c r="F96" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>406</v>
+      </c>
+      <c r="D97">
+        <v>4910</v>
+      </c>
+      <c r="E97">
+        <v>2004</v>
+      </c>
+      <c r="F97" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>262</v>
+      </c>
+      <c r="C98" t="s">
+        <v>407</v>
+      </c>
+      <c r="D98">
+        <v>-1</v>
+      </c>
+      <c r="E98">
+        <v>-1</v>
+      </c>
+      <c r="F98">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>408</v>
+      </c>
+      <c r="D99">
+        <v>14070</v>
+      </c>
+      <c r="E99">
+        <v>4951</v>
+      </c>
+      <c r="F99" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>305</v>
+      </c>
+      <c r="C100" t="s">
+        <v>409</v>
+      </c>
+      <c r="D100">
+        <v>1030090</v>
+      </c>
+      <c r="E100">
+        <v>287487</v>
+      </c>
+      <c r="F100" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>306</v>
+      </c>
+      <c r="C101" t="s">
+        <v>410</v>
+      </c>
+      <c r="D101">
+        <v>296355</v>
+      </c>
+      <c r="E101">
+        <v>87829</v>
+      </c>
+      <c r="F101" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>